--- a/logs/result.xlsx
+++ b/logs/result.xlsx
@@ -121,8 +121,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.000%"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -175,19 +175,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -195,6 +195,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFEECB9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -244,8 +249,8 @@
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>提案手法と</a:t>
             </a:r>
@@ -254,8 +259,8 @@
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>A star</a:t>
             </a:r>
@@ -264,8 +269,8 @@
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>の比較実験</a:t>
             </a:r>
@@ -539,11 +544,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-97535840"/>
-        <c:axId val="-1967318800"/>
+        <c:axId val="-343351408"/>
+        <c:axId val="-343349232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-97535840"/>
+        <c:axId val="-343351408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,7 +638,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1967318800"/>
+        <c:crossAx val="-343349232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -641,7 +646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1967318800"/>
+        <c:axId val="-343349232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -748,7 +753,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-97535840"/>
+        <c:crossAx val="-343351408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -798,18 +803,21 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="FEECB9"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="FEECB9">
+          <a:alpha val="0"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -1378,8 +1386,8 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -1697,7 +1705,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1709,11 +1717,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
@@ -1741,11 +1749,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="F4" t="s">
         <v>3</v>
       </c>
@@ -1762,11 +1770,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="G7" t="s">
         <v>4</v>
       </c>
@@ -1796,7 +1804,7 @@
       <c r="H8" s="1">
         <v>5.1316540000000002E-4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>8.05398222E-2</v>
       </c>
     </row>
@@ -1810,7 +1818,7 @@
       <c r="H9">
         <v>3.3170699999999999E-4</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>2.2643063000000001E-2</v>
       </c>
     </row>
@@ -1824,16 +1832,16 @@
       <c r="H10" s="1">
         <v>4.8774608000000004E-3</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>2.5861807099999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
@@ -1850,13 +1858,13 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G15">
         <v>9.4</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1867,19 +1875,19 @@
       <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>19.3125</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
@@ -1899,10 +1907,10 @@
       <c r="F21" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>67.833333333333329</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.24</v>
       </c>
     </row>
@@ -1913,27 +1921,27 @@
       <c r="F22" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>73.9375</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.64</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>0.5</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>0.24</v>
       </c>
     </row>
@@ -1941,21 +1949,21 @@
       <c r="E28" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>0.8</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>0.64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
